--- a/电商项目功能点详情.xlsx
+++ b/电商项目功能点详情.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="160">
   <si>
     <t>home3</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -609,6 +609,50 @@
   </si>
   <si>
     <t>refund</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退货款申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>safety</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户安全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setpay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改支付密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suggest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wallet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>walletlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单明细</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -966,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C109"/>
+  <dimension ref="A1:C114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1649,6 +1693,49 @@
       <c r="A109" t="s">
         <v>148</v>
       </c>
+      <c r="B109" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>150</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>152</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>154</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>156</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>158</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>159</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/电商项目功能点详情.xlsx
+++ b/电商项目功能点详情.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -509,6 +509,7 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -617,16 +618,16 @@
   </sheetPr>
   <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A105" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B117" activeCellId="0" sqref="B117"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="9.68"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.4744186046512"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.1627906976744"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.953488372093"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.84651162790698"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -645,8 +646,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1351,7 +1352,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
